--- a/script_master_data/DED-TESTING_Adopcion IA_v2a_v1.0.xlsx
+++ b/script_master_data/DED-TESTING_Adopcion IA_v2a_v1.0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1655" documentId="13_ncr:1_{DFE0A30C-CFB8-48A3-9143-60D8C45831E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B335216E-6505-4CDF-A57F-65AC40B47852}"/>
+  <xr:revisionPtr revIDLastSave="1656" documentId="13_ncr:1_{DFE0A30C-CFB8-48A3-9143-60D8C45831E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA4E825E-B455-4EAA-B3A4-57DB0FF84D92}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdopcionIA" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1020,7 +1018,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2226,6 +2224,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2313,9 +2314,6 @@
     <xf numFmtId="0" fontId="6" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2613,7 +2611,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2675,7 +2673,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2821,7 +2819,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2998,7 +2996,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3148,7 +3146,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776388104"/>
@@ -3230,7 +3228,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3262,7 +3260,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="776385544"/>
@@ -3327,7 +3325,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3359,7 +3357,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="114118151"/>
@@ -3419,7 +3417,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3449,7 +3447,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3525,7 +3523,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3576,7 +3574,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3724,7 +3722,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283272200"/>
@@ -3783,7 +3781,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="283270152"/>
@@ -3824,7 +3822,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3900,7 +3898,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3914,17 +3912,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No aplica Prompt"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No aplica Prompt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -3962,7 +3949,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4052,6 +4039,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No aplica Prompt"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No aplica Prompt</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -4060,17 +4068,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"Uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="70AD47"/>
@@ -4108,7 +4105,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4198,6 +4195,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"Uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -4206,17 +4224,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFD966"/>
@@ -4254,7 +4261,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4315,7 +4322,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!J14:J20</c:f>
+              <c:f>Reporte!$J$14:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4344,6 +4351,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -4368,17 +4396,6 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"Total de tareas"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total de tareas</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -4420,7 +4437,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!F14:F20</c:f>
+              <c:f>Reporte!$F$14:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -4450,6 +4467,27 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"Total de tareas"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total de tareas</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AAFA-4231-A5C1-836DA4DA0000}"/>
             </c:ext>
@@ -4474,17 +4512,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"% Uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>% Uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4525,7 +4552,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4616,6 +4643,27 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"% Uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>% Uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-CA46-4DB4-A635-9D635E341A25}"/>
             </c:ext>
@@ -4675,7 +4723,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1838961159"/>
@@ -4734,7 +4782,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1400368647"/>
@@ -4776,7 +4824,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1400858119"/>
@@ -4836,7 +4884,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -4875,7 +4923,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4905,7 +4953,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4989,7 +5037,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5003,17 +5051,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No aplica Propmt"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No aplica Propmt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5051,7 +5088,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5094,6 +5131,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No aplica Propmt"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No aplica Propmt</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-46A3-4B7C-B4D0-9B2450C1A3BB}"/>
             </c:ext>
@@ -5102,17 +5160,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"Uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="70AD47"/>
@@ -5150,7 +5197,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5182,7 +5229,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Reporte!F8</c:f>
+              <c:f>Reporte!$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -5193,6 +5240,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"Uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-46A3-4B7C-B4D0-9B2450C1A3BB}"/>
             </c:ext>
@@ -5201,17 +5269,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>{"No uso IA"}</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No uso IA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="FFD966"/>
@@ -5249,7 +5306,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5292,6 +5349,27 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>{"No uso IA"}</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>No uso IA</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-46A3-4B7C-B4D0-9B2450C1A3BB}"/>
             </c:ext>
@@ -5362,7 +5440,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="684009991"/>
@@ -5414,7 +5492,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5444,7 +5522,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5520,7 +5598,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5956,7 +6034,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6106,7 +6184,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6256,7 +6334,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -6315,7 +6393,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -6357,7 +6435,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -6417,7 +6495,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6447,7 +6525,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6523,7 +6601,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6980,7 +7058,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7145,7 +7223,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7295,7 +7373,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -7354,7 +7432,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -7396,7 +7474,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -7456,7 +7534,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7486,7 +7564,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7562,7 +7640,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7998,7 +8076,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -8148,7 +8226,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171074056"/>
@@ -8207,7 +8285,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1171072008"/>
@@ -8249,7 +8327,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2097866760"/>
@@ -8309,7 +8387,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8339,7 +8417,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8415,7 +8493,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8868,7 +8946,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9034,7 +9112,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -9184,7 +9262,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -9243,7 +9321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -9285,7 +9363,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -9345,7 +9423,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9375,7 +9453,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9451,7 +9529,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9887,7 +9965,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10037,7 +10115,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -10187,7 +10265,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -10246,7 +10324,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -10288,7 +10366,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -10348,7 +10426,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10378,7 +10456,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10454,7 +10532,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10907,7 +10985,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11073,7 +11151,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -11223,7 +11301,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -11282,7 +11360,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -11324,7 +11402,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -11384,7 +11462,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11414,7 +11492,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11490,7 +11568,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11926,7 +12004,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12076,7 +12154,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12226,7 +12304,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -12285,7 +12363,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -12327,7 +12405,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2040453639"/>
@@ -12387,7 +12465,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12417,7 +12495,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12493,7 +12571,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12530,7 +12608,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -12619,7 +12697,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -12708,7 +12786,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -12797,7 +12875,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -12930,7 +13008,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -12962,7 +13040,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -13080,7 +13158,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="es-ES"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -13112,7 +13190,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Reporte!C51:C57</c:f>
+              <c:f>Reporte!$C$51:$C$57</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -13230,7 +13308,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054800904"/>
@@ -13289,7 +13367,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2054798856"/>
@@ -13331,7 +13409,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069212168"/>
@@ -13391,7 +13469,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13421,7 +13499,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -20731,30 +20809,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BR196"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="AP172" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="AQ6" sqref="AQ6:AR178"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="41" width="9.140625" style="1"/>
-    <col min="42" max="42" width="94.42578125" style="124" customWidth="1"/>
-    <col min="43" max="43" width="29.140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="1" customWidth="1"/>
+    <col min="7" max="11" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12" max="41" width="9.1796875" style="1"/>
+    <col min="42" max="42" width="94.453125" style="124" customWidth="1"/>
+    <col min="43" max="43" width="29.1796875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" ht="12.75" customHeight="1">
+    <row r="1" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J1" s="1">
         <f>SUM(J6:J155)</f>
         <v>130</v>
@@ -20788,69 +20866,69 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="2" spans="2:44" ht="18.75">
+    <row r="2" spans="2:44" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:44" ht="15">
+    <row r="3" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="77" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.75">
-      <c r="G4" s="176" t="s">
+    <row r="4" spans="2:44" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G4" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="178"/>
-      <c r="L4" s="177" t="s">
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="147" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="177"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="177"/>
-      <c r="P4" s="178"/>
-      <c r="Q4" s="177" t="s">
+      <c r="M4" s="147"/>
+      <c r="N4" s="147"/>
+      <c r="O4" s="147"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="177"/>
-      <c r="S4" s="177"/>
-      <c r="T4" s="177"/>
-      <c r="U4" s="178"/>
-      <c r="V4" s="177" t="s">
+      <c r="R4" s="147"/>
+      <c r="S4" s="147"/>
+      <c r="T4" s="147"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="W4" s="177"/>
-      <c r="X4" s="177"/>
-      <c r="Y4" s="177"/>
-      <c r="Z4" s="178"/>
-      <c r="AA4" s="177" t="s">
+      <c r="W4" s="147"/>
+      <c r="X4" s="147"/>
+      <c r="Y4" s="147"/>
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="147" t="s">
         <v>6</v>
       </c>
-      <c r="AB4" s="177"/>
-      <c r="AC4" s="177"/>
-      <c r="AD4" s="177"/>
-      <c r="AE4" s="178"/>
-      <c r="AF4" s="177" t="s">
+      <c r="AB4" s="147"/>
+      <c r="AC4" s="147"/>
+      <c r="AD4" s="147"/>
+      <c r="AE4" s="148"/>
+      <c r="AF4" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="AG4" s="177"/>
-      <c r="AH4" s="177"/>
-      <c r="AI4" s="177"/>
-      <c r="AJ4" s="178"/>
-      <c r="AK4" s="177" t="s">
+      <c r="AG4" s="147"/>
+      <c r="AH4" s="147"/>
+      <c r="AI4" s="147"/>
+      <c r="AJ4" s="148"/>
+      <c r="AK4" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="AL4" s="177"/>
-      <c r="AM4" s="177"/>
-      <c r="AN4" s="177"/>
-      <c r="AO4" s="177"/>
+      <c r="AL4" s="147"/>
+      <c r="AM4" s="147"/>
+      <c r="AN4" s="147"/>
+      <c r="AO4" s="147"/>
       <c r="AP4" s="125"/>
     </row>
-    <row r="5" spans="2:44" ht="40.5">
+    <row r="5" spans="2:44" ht="39" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -20981,7 +21059,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="2:44">
+    <row r="6" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
@@ -21114,7 +21192,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="7" spans="2:44">
+    <row r="7" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
@@ -21247,7 +21325,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="2:44">
+    <row r="8" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
@@ -21380,7 +21458,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="9" spans="2:44">
+    <row r="9" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -21513,7 +21591,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="10" spans="2:44">
+    <row r="10" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
@@ -21646,7 +21724,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="11" spans="2:44">
+    <row r="11" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>40</v>
       </c>
@@ -21779,7 +21857,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="12" spans="2:44">
+    <row r="12" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
@@ -21912,7 +21990,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="13" spans="2:44">
+    <row r="13" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
@@ -22045,7 +22123,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="14" spans="2:44">
+    <row r="14" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>40</v>
       </c>
@@ -22178,7 +22256,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="15" spans="2:44">
+    <row r="15" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>53</v>
       </c>
@@ -22311,7 +22389,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="16" spans="2:44">
+    <row r="16" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>53</v>
       </c>
@@ -22444,7 +22522,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="17" spans="2:44">
+    <row r="17" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>64</v>
       </c>
@@ -22577,7 +22655,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="18" spans="2:44">
+    <row r="18" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>64</v>
       </c>
@@ -22710,7 +22788,7 @@
         <v>N</v>
       </c>
     </row>
-    <row r="19" spans="2:44">
+    <row r="19" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>74</v>
       </c>
@@ -22843,7 +22921,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="20" spans="2:44">
+    <row r="20" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>74</v>
       </c>
@@ -22976,7 +23054,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="21" spans="2:44">
+    <row r="21" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>53</v>
       </c>
@@ -23109,7 +23187,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="22" spans="2:44">
+    <row r="22" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>53</v>
       </c>
@@ -23242,7 +23320,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="23" spans="2:44">
+    <row r="23" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
@@ -23375,7 +23453,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="24" spans="2:44">
+    <row r="24" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>22</v>
       </c>
@@ -23508,7 +23586,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="25" spans="2:44">
+    <row r="25" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>97</v>
       </c>
@@ -23641,7 +23719,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="26" spans="2:44">
+    <row r="26" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
@@ -23774,7 +23852,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="27" spans="2:44">
+    <row r="27" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>22</v>
       </c>
@@ -23907,7 +23985,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="28" spans="2:44">
+    <row r="28" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>22</v>
       </c>
@@ -24040,7 +24118,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="29" spans="2:44">
+    <row r="29" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B29" s="5" t="s">
         <v>22</v>
       </c>
@@ -24173,7 +24251,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="30" spans="2:44">
+    <row r="30" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
         <v>22</v>
       </c>
@@ -24306,7 +24384,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="31" spans="2:44">
+    <row r="31" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>22</v>
       </c>
@@ -24439,7 +24517,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="32" spans="2:44">
+    <row r="32" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>22</v>
       </c>
@@ -24572,7 +24650,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="33" spans="2:44">
+    <row r="33" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>22</v>
       </c>
@@ -24705,7 +24783,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="34" spans="2:44">
+    <row r="34" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>40</v>
       </c>
@@ -24838,7 +24916,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="35" spans="2:44">
+    <row r="35" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B35" s="5" t="s">
         <v>122</v>
       </c>
@@ -24971,7 +25049,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="36" spans="2:44">
+    <row r="36" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="s">
         <v>122</v>
       </c>
@@ -25104,7 +25182,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="37" spans="2:44">
+    <row r="37" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>22</v>
       </c>
@@ -25237,7 +25315,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="38" spans="2:44">
+    <row r="38" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
         <v>64</v>
       </c>
@@ -25370,7 +25448,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="39" spans="2:44">
+    <row r="39" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
         <v>131</v>
       </c>
@@ -25503,7 +25581,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="40" spans="2:44">
+    <row r="40" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
         <v>40</v>
       </c>
@@ -25636,7 +25714,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="41" spans="2:44">
+    <row r="41" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
         <v>140</v>
       </c>
@@ -25769,7 +25847,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="42" spans="2:44">
+    <row r="42" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>146</v>
       </c>
@@ -25902,7 +25980,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="43" spans="2:44">
+    <row r="43" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
         <v>146</v>
       </c>
@@ -26035,7 +26113,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="44" spans="2:44">
+    <row r="44" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
         <v>146</v>
       </c>
@@ -26168,7 +26246,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="45" spans="2:44">
+    <row r="45" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
         <v>146</v>
       </c>
@@ -26301,7 +26379,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="46" spans="2:44">
+    <row r="46" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
         <v>122</v>
       </c>
@@ -26434,7 +26512,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="47" spans="2:44">
+    <row r="47" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
         <v>22</v>
       </c>
@@ -26567,7 +26645,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="48" spans="2:44">
+    <row r="48" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
         <v>22</v>
       </c>
@@ -26700,7 +26778,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="49" spans="2:44">
+    <row r="49" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
         <v>22</v>
       </c>
@@ -26833,7 +26911,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="50" spans="2:44">
+    <row r="50" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B50" s="5" t="s">
         <v>146</v>
       </c>
@@ -26966,7 +27044,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="51" spans="2:44">
+    <row r="51" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B51" s="5" t="s">
         <v>175</v>
       </c>
@@ -27099,7 +27177,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="52" spans="2:44">
+    <row r="52" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
         <v>122</v>
       </c>
@@ -27232,7 +27310,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="53" spans="2:44">
+    <row r="53" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
         <v>182</v>
       </c>
@@ -27365,7 +27443,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="54" spans="2:44">
+    <row r="54" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
         <v>186</v>
       </c>
@@ -27498,7 +27576,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="55" spans="2:44">
+    <row r="55" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
         <v>186</v>
       </c>
@@ -27631,7 +27709,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="56" spans="2:44">
+    <row r="56" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
         <v>193</v>
       </c>
@@ -27764,7 +27842,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="57" spans="2:44">
+    <row r="57" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>175</v>
       </c>
@@ -27897,7 +27975,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="58" spans="2:44">
+    <row r="58" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B58" s="5" t="s">
         <v>193</v>
       </c>
@@ -28030,7 +28108,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="59" spans="2:44">
+    <row r="59" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B59" s="5" t="s">
         <v>22</v>
       </c>
@@ -28163,7 +28241,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="60" spans="2:44">
+    <row r="60" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B60" s="5" t="s">
         <v>210</v>
       </c>
@@ -28296,7 +28374,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="61" spans="2:44">
+    <row r="61" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B61" s="5" t="s">
         <v>140</v>
       </c>
@@ -28429,7 +28507,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="62" spans="2:44">
+    <row r="62" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
         <v>140</v>
       </c>
@@ -28562,7 +28640,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="63" spans="2:44">
+    <row r="63" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B63" s="5" t="s">
         <v>140</v>
       </c>
@@ -28695,7 +28773,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="64" spans="2:44">
+    <row r="64" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B64" s="5" t="s">
         <v>146</v>
       </c>
@@ -28828,7 +28906,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="65" spans="2:44">
+    <row r="65" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B65" s="5" t="s">
         <v>40</v>
       </c>
@@ -28961,7 +29039,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="66" spans="2:44">
+    <row r="66" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B66" s="5" t="s">
         <v>146</v>
       </c>
@@ -29094,7 +29172,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="67" spans="2:44">
+    <row r="67" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
         <v>146</v>
       </c>
@@ -29227,7 +29305,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="68" spans="2:44">
+    <row r="68" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B68" s="5" t="s">
         <v>22</v>
       </c>
@@ -29360,7 +29438,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="69" spans="2:44">
+    <row r="69" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B69" s="5" t="s">
         <v>22</v>
       </c>
@@ -29493,7 +29571,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="70" spans="2:44">
+    <row r="70" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B70" s="5" t="s">
         <v>22</v>
       </c>
@@ -29626,7 +29704,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="71" spans="2:44">
+    <row r="71" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B71" s="5" t="s">
         <v>186</v>
       </c>
@@ -29759,7 +29837,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="72" spans="2:44">
+    <row r="72" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B72" s="5" t="s">
         <v>210</v>
       </c>
@@ -29892,7 +29970,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="73" spans="2:44">
+    <row r="73" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B73" s="5" t="s">
         <v>122</v>
       </c>
@@ -30025,7 +30103,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="74" spans="2:44">
+    <row r="74" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>40</v>
       </c>
@@ -30158,7 +30236,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="75" spans="2:44">
+    <row r="75" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B75" s="5"/>
       <c r="C75" s="145"/>
       <c r="D75" s="6"/>
@@ -30209,7 +30287,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:44">
+    <row r="76" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B76" s="5"/>
       <c r="C76" s="145"/>
       <c r="D76" s="6"/>
@@ -30254,7 +30332,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:44">
+    <row r="77" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B77" s="5"/>
       <c r="C77" s="145"/>
       <c r="D77" s="6"/>
@@ -30305,7 +30383,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:44">
+    <row r="78" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B78" s="5"/>
       <c r="C78" s="145"/>
       <c r="D78" s="6"/>
@@ -30356,7 +30434,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:44">
+    <row r="79" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B79" s="5"/>
       <c r="C79" s="145"/>
       <c r="D79" s="6"/>
@@ -30407,7 +30485,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:44">
+    <row r="80" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B80" s="5"/>
       <c r="C80" s="145"/>
       <c r="D80" s="6"/>
@@ -30458,7 +30536,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:44">
+    <row r="81" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B81" s="5"/>
       <c r="C81" s="145"/>
       <c r="D81" s="6"/>
@@ -30509,7 +30587,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:44">
+    <row r="82" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B82" s="5"/>
       <c r="C82" s="145"/>
       <c r="D82" s="6"/>
@@ -30560,7 +30638,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:44">
+    <row r="83" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B83" s="5"/>
       <c r="C83" s="145"/>
       <c r="D83" s="6"/>
@@ -30611,7 +30689,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:44">
+    <row r="84" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B84" s="5"/>
       <c r="C84" s="145"/>
       <c r="D84" s="6"/>
@@ -30662,7 +30740,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:44">
+    <row r="85" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B85" s="5"/>
       <c r="C85" s="145"/>
       <c r="D85" s="6"/>
@@ -30713,7 +30791,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:44">
+    <row r="86" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B86" s="5"/>
       <c r="C86" s="145"/>
       <c r="D86" s="6"/>
@@ -30764,7 +30842,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:44">
+    <row r="87" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B87" s="5"/>
       <c r="C87" s="145"/>
       <c r="D87" s="6"/>
@@ -30815,7 +30893,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:44">
+    <row r="88" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B88" s="5"/>
       <c r="C88" s="145"/>
       <c r="D88" s="6"/>
@@ -30866,7 +30944,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:44">
+    <row r="89" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B89" s="5"/>
       <c r="C89" s="145"/>
       <c r="D89" s="6"/>
@@ -30917,7 +30995,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:44">
+    <row r="90" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B90" s="5"/>
       <c r="C90" s="145"/>
       <c r="D90" s="6"/>
@@ -30968,7 +31046,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:44">
+    <row r="91" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B91" s="5"/>
       <c r="C91" s="145"/>
       <c r="D91" s="6"/>
@@ -31019,7 +31097,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:44">
+    <row r="92" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B92" s="5"/>
       <c r="C92" s="145"/>
       <c r="D92" s="6"/>
@@ -31070,7 +31148,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:44">
+    <row r="93" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B93" s="5"/>
       <c r="C93" s="145"/>
       <c r="D93" s="6"/>
@@ -31121,7 +31199,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:44">
+    <row r="94" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B94" s="5"/>
       <c r="C94" s="145"/>
       <c r="D94" s="6"/>
@@ -31172,7 +31250,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:44" ht="15">
+    <row r="95" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B95" s="5"/>
       <c r="C95" s="145"/>
       <c r="D95" s="6"/>
@@ -31223,7 +31301,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:44" ht="15">
+    <row r="96" spans="2:44" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B96" s="5"/>
       <c r="C96" s="145"/>
       <c r="D96" s="6"/>
@@ -31274,7 +31352,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:44">
+    <row r="97" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B97" s="5"/>
       <c r="C97" s="145"/>
       <c r="D97" s="6"/>
@@ -31325,7 +31403,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:44">
+    <row r="98" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B98" s="5"/>
       <c r="C98" s="145"/>
       <c r="D98" s="6"/>
@@ -31376,7 +31454,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:44">
+    <row r="99" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B99" s="5"/>
       <c r="C99" s="145"/>
       <c r="D99" s="6"/>
@@ -31427,7 +31505,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:44">
+    <row r="100" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B100" s="5"/>
       <c r="C100" s="145"/>
       <c r="D100" s="6"/>
@@ -31478,7 +31556,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:44" ht="45.75" customHeight="1">
+    <row r="101" spans="2:44" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="5"/>
       <c r="C101" s="145"/>
       <c r="D101" s="6"/>
@@ -31529,7 +31607,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:44">
+    <row r="102" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B102" s="5"/>
       <c r="C102" s="145"/>
       <c r="D102" s="6"/>
@@ -31580,7 +31658,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="2:44">
+    <row r="103" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B103" s="5"/>
       <c r="C103" s="145"/>
       <c r="D103" s="6"/>
@@ -31631,7 +31709,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:44">
+    <row r="104" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B104" s="5"/>
       <c r="C104" s="145"/>
       <c r="D104" s="6"/>
@@ -31682,7 +31760,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:44">
+    <row r="105" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B105" s="5"/>
       <c r="C105" s="145"/>
       <c r="D105" s="6"/>
@@ -31733,7 +31811,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:44">
+    <row r="106" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B106" s="5"/>
       <c r="C106" s="145"/>
       <c r="D106" s="6"/>
@@ -31784,7 +31862,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:44">
+    <row r="107" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B107" s="5"/>
       <c r="C107" s="145"/>
       <c r="D107" s="6"/>
@@ -31835,7 +31913,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:44">
+    <row r="108" spans="2:44" ht="13" x14ac:dyDescent="0.3">
       <c r="B108" s="5"/>
       <c r="C108" s="145"/>
       <c r="D108" s="6"/>
@@ -31886,7 +31964,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:44" ht="12.75" customHeight="1">
+    <row r="109" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="5"/>
       <c r="C109" s="145"/>
       <c r="D109" s="6"/>
@@ -31937,7 +32015,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:44" ht="12.75" customHeight="1">
+    <row r="110" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="5"/>
       <c r="C110" s="145"/>
       <c r="D110" s="6"/>
@@ -31988,7 +32066,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:44" ht="12.75" customHeight="1">
+    <row r="111" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="5"/>
       <c r="C111" s="145"/>
       <c r="D111" s="6"/>
@@ -32039,7 +32117,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="2:44" ht="28.5" customHeight="1">
+    <row r="112" spans="2:44" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="5"/>
       <c r="C112" s="145"/>
       <c r="D112" s="6"/>
@@ -32090,7 +32168,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="2:70" ht="12.75" customHeight="1">
+    <row r="113" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="5"/>
       <c r="C113" s="145"/>
       <c r="D113" s="6"/>
@@ -32141,7 +32219,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:70" ht="12.75" customHeight="1">
+    <row r="114" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="5"/>
       <c r="C114" s="145"/>
       <c r="D114" s="6"/>
@@ -32192,7 +32270,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:70" ht="12.75" customHeight="1">
+    <row r="115" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="5"/>
       <c r="C115" s="145"/>
       <c r="D115" s="6"/>
@@ -32243,7 +32321,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:70" ht="12.75" customHeight="1">
+    <row r="116" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="5"/>
       <c r="C116" s="145"/>
       <c r="D116" s="6"/>
@@ -32294,7 +32372,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:70" ht="12.75" customHeight="1">
+    <row r="117" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="5"/>
       <c r="C117" s="145"/>
       <c r="D117" s="6"/>
@@ -32345,7 +32423,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:70" ht="12.75" customHeight="1">
+    <row r="118" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="5"/>
       <c r="C118" s="145"/>
       <c r="D118" s="6"/>
@@ -32396,7 +32474,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:70" ht="12.75" customHeight="1">
+    <row r="119" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="5"/>
       <c r="C119" s="145"/>
       <c r="D119" s="6"/>
@@ -32447,7 +32525,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="2:70" ht="12.75" customHeight="1">
+    <row r="120" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="5"/>
       <c r="C120" s="145"/>
       <c r="D120" s="6"/>
@@ -32498,7 +32576,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:70" ht="42.75" customHeight="1">
+    <row r="121" spans="2:70" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="5"/>
       <c r="C121" s="145"/>
       <c r="D121" s="6"/>
@@ -32549,7 +32627,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:70" ht="12.75" customHeight="1">
+    <row r="122" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="5"/>
       <c r="C122" s="145"/>
       <c r="D122" s="6"/>
@@ -32600,7 +32678,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="2:70" ht="12.75" customHeight="1">
+    <row r="123" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="5"/>
       <c r="C123" s="145"/>
       <c r="D123" s="6"/>
@@ -32677,7 +32755,7 @@
       <c r="BQ123" s="101"/>
       <c r="BR123" s="101"/>
     </row>
-    <row r="124" spans="2:70" ht="12.75" customHeight="1">
+    <row r="124" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="5"/>
       <c r="C124" s="145"/>
       <c r="D124" s="6"/>
@@ -32728,7 +32806,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:70" ht="12.75" customHeight="1">
+    <row r="125" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="5"/>
       <c r="C125" s="145"/>
       <c r="D125" s="6"/>
@@ -32779,7 +32857,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="2:70" ht="12.75" customHeight="1">
+    <row r="126" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="5"/>
       <c r="C126" s="145"/>
       <c r="D126" s="6"/>
@@ -32830,7 +32908,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:70" ht="12.75" customHeight="1">
+    <row r="127" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="5"/>
       <c r="C127" s="145"/>
       <c r="D127" s="6"/>
@@ -32881,7 +32959,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="2:70" ht="12.75" customHeight="1">
+    <row r="128" spans="2:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="5"/>
       <c r="C128" s="145"/>
       <c r="D128" s="6"/>
@@ -32932,7 +33010,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="2:44" ht="12.75" customHeight="1">
+    <row r="129" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="5"/>
       <c r="C129" s="145"/>
       <c r="D129" s="6"/>
@@ -32983,7 +33061,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="2:44" ht="27" customHeight="1">
+    <row r="130" spans="2:44" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="5"/>
       <c r="C130" s="145"/>
       <c r="D130" s="6"/>
@@ -33034,7 +33112,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="2:44" ht="12.75" customHeight="1">
+    <row r="131" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="5"/>
       <c r="C131" s="145"/>
       <c r="D131" s="6"/>
@@ -33085,7 +33163,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="2:44" ht="12.75" customHeight="1">
+    <row r="132" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="5"/>
       <c r="C132" s="145"/>
       <c r="D132" s="6"/>
@@ -33136,7 +33214,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="2:44" ht="12.75" customHeight="1">
+    <row r="133" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="5"/>
       <c r="C133" s="145"/>
       <c r="D133" s="6"/>
@@ -33187,7 +33265,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="2:44" ht="12.75" customHeight="1">
+    <row r="134" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="5"/>
       <c r="C134" s="145"/>
       <c r="D134" s="6"/>
@@ -33238,7 +33316,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="2:44" ht="12.75" customHeight="1">
+    <row r="135" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="5"/>
       <c r="C135" s="145"/>
       <c r="D135" s="6"/>
@@ -33289,7 +33367,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="2:44" ht="12.75" customHeight="1">
+    <row r="136" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="5"/>
       <c r="C136" s="145"/>
       <c r="D136" s="6"/>
@@ -33340,7 +33418,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="2:44" ht="12.75" customHeight="1">
+    <row r="137" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="5"/>
       <c r="C137" s="145"/>
       <c r="D137" s="6"/>
@@ -33391,7 +33469,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="2:44" ht="12.75" customHeight="1">
+    <row r="138" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="5"/>
       <c r="C138" s="145"/>
       <c r="D138" s="6"/>
@@ -33442,7 +33520,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="2:44" ht="12.75" customHeight="1">
+    <row r="139" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="5"/>
       <c r="C139" s="145"/>
       <c r="D139" s="6"/>
@@ -33493,7 +33571,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="2:44" ht="12.75" customHeight="1">
+    <row r="140" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="5"/>
       <c r="C140" s="145"/>
       <c r="D140" s="6"/>
@@ -33544,7 +33622,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="2:44" ht="12.75" customHeight="1">
+    <row r="141" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="5"/>
       <c r="C141" s="145"/>
       <c r="D141" s="6"/>
@@ -33595,7 +33673,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="2:44" ht="12.75" customHeight="1">
+    <row r="142" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="5"/>
       <c r="C142" s="145"/>
       <c r="D142" s="6"/>
@@ -33646,7 +33724,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="2:44" ht="45.75" customHeight="1">
+    <row r="143" spans="2:44" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="5"/>
       <c r="C143" s="145"/>
       <c r="D143" s="6"/>
@@ -33697,7 +33775,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="2:44" ht="12.75" customHeight="1">
+    <row r="144" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="5"/>
       <c r="C144" s="145"/>
       <c r="D144" s="6"/>
@@ -33748,7 +33826,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="2:44" ht="12.75" customHeight="1">
+    <row r="145" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="5"/>
       <c r="C145" s="145"/>
       <c r="D145" s="6"/>
@@ -33799,7 +33877,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="2:44" ht="48" customHeight="1">
+    <row r="146" spans="2:44" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="5"/>
       <c r="C146" s="145"/>
       <c r="D146" s="6"/>
@@ -33850,7 +33928,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="2:44" ht="19.5" customHeight="1">
+    <row r="147" spans="2:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="5"/>
       <c r="C147" s="145"/>
       <c r="D147" s="6"/>
@@ -33901,7 +33979,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="2:44" ht="12.75" customHeight="1">
+    <row r="148" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="5"/>
       <c r="C148" s="145"/>
       <c r="D148" s="6"/>
@@ -33952,7 +34030,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="2:44" ht="12.75" customHeight="1">
+    <row r="149" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="5"/>
       <c r="C149" s="145"/>
       <c r="D149" s="6"/>
@@ -34003,7 +34081,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="2:44" ht="12.75" customHeight="1">
+    <row r="150" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="5"/>
       <c r="C150" s="145"/>
       <c r="D150" s="6"/>
@@ -34054,7 +34132,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="2:44" ht="12.75" customHeight="1">
+    <row r="151" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="5"/>
       <c r="C151" s="145"/>
       <c r="D151" s="6"/>
@@ -34105,7 +34183,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="2:44" ht="12.75" customHeight="1">
+    <row r="152" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="5"/>
       <c r="C152" s="145"/>
       <c r="D152" s="6"/>
@@ -34156,7 +34234,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="2:44" ht="12.75" customHeight="1">
+    <row r="153" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="5"/>
       <c r="C153" s="145"/>
       <c r="D153" s="6"/>
@@ -34207,7 +34285,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="2:44" ht="12.75" customHeight="1">
+    <row r="154" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="5"/>
       <c r="C154" s="145"/>
       <c r="D154" s="6"/>
@@ -34258,7 +34336,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="2:44" ht="12.75" customHeight="1">
+    <row r="155" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="5"/>
       <c r="C155" s="145"/>
       <c r="D155" s="6"/>
@@ -34309,7 +34387,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="2:44" ht="12.75" customHeight="1">
+    <row r="156" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="5"/>
       <c r="C156" s="145"/>
       <c r="D156" s="6"/>
@@ -34360,7 +34438,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="2:44" ht="12.75" customHeight="1">
+    <row r="157" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="5"/>
       <c r="C157" s="145"/>
       <c r="D157" s="6"/>
@@ -34411,7 +34489,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="2:44" ht="12.75" customHeight="1">
+    <row r="158" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="5"/>
       <c r="C158" s="145"/>
       <c r="D158" s="6"/>
@@ -34462,7 +34540,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="2:44" ht="12.75" customHeight="1">
+    <row r="159" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="5"/>
       <c r="C159" s="145"/>
       <c r="D159" s="6"/>
@@ -34513,7 +34591,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="2:44" ht="12.75" customHeight="1">
+    <row r="160" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="5"/>
       <c r="C160" s="145"/>
       <c r="D160" s="6"/>
@@ -34564,7 +34642,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="2:44" ht="12.75" customHeight="1">
+    <row r="161" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="5"/>
       <c r="C161" s="145"/>
       <c r="D161" s="6"/>
@@ -34615,7 +34693,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="2:44" ht="12.75" customHeight="1">
+    <row r="162" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="5"/>
       <c r="C162" s="145"/>
       <c r="D162" s="6"/>
@@ -34666,7 +34744,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="2:44" ht="12.75" customHeight="1">
+    <row r="163" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="5"/>
       <c r="C163" s="145"/>
       <c r="D163" s="6"/>
@@ -34717,7 +34795,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="2:44" ht="12.75" customHeight="1">
+    <row r="164" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="5"/>
       <c r="C164" s="145"/>
       <c r="D164" s="6"/>
@@ -34768,7 +34846,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="2:44" ht="12.75" customHeight="1">
+    <row r="165" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="5"/>
       <c r="C165" s="145"/>
       <c r="D165" s="6"/>
@@ -34819,7 +34897,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="2:44" ht="12.75" customHeight="1">
+    <row r="166" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="5"/>
       <c r="C166" s="145"/>
       <c r="D166" s="6"/>
@@ -34870,7 +34948,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="2:44" ht="12.75" customHeight="1">
+    <row r="167" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="5"/>
       <c r="C167" s="145"/>
       <c r="D167" s="6"/>
@@ -34921,7 +34999,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="2:44" ht="12.75" customHeight="1">
+    <row r="168" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="5"/>
       <c r="C168" s="145"/>
       <c r="D168" s="6"/>
@@ -34972,7 +35050,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="2:44" ht="12.75" customHeight="1">
+    <row r="169" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="5"/>
       <c r="C169" s="145"/>
       <c r="D169" s="6"/>
@@ -35023,7 +35101,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="2:44" ht="12.75" customHeight="1">
+    <row r="170" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="5"/>
       <c r="C170" s="145"/>
       <c r="D170" s="6"/>
@@ -35074,7 +35152,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="2:44" ht="12.75" customHeight="1">
+    <row r="171" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="5"/>
       <c r="C171" s="145"/>
       <c r="D171" s="6"/>
@@ -35125,7 +35203,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="2:44" ht="12.75" customHeight="1">
+    <row r="172" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="5"/>
       <c r="C172" s="145"/>
       <c r="D172" s="6"/>
@@ -35176,7 +35254,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="2:44" ht="12.75" customHeight="1">
+    <row r="173" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="5"/>
       <c r="C173" s="145"/>
       <c r="D173" s="6"/>
@@ -35227,7 +35305,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="2:44" ht="12.75" customHeight="1">
+    <row r="174" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="5"/>
       <c r="C174" s="145"/>
       <c r="D174" s="6"/>
@@ -35278,7 +35356,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="2:44" ht="12.75" customHeight="1">
+    <row r="175" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="5"/>
       <c r="C175" s="145"/>
       <c r="D175" s="6"/>
@@ -35329,7 +35407,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="2:44" ht="12.75" customHeight="1">
+    <row r="176" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="5"/>
       <c r="C176" s="145"/>
       <c r="D176" s="6"/>
@@ -35380,7 +35458,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="2:44" ht="12.75" customHeight="1">
+    <row r="177" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="5"/>
       <c r="C177" s="145"/>
       <c r="D177" s="6"/>
@@ -35431,7 +35509,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="2:44" ht="12.75" customHeight="1">
+    <row r="178" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="5"/>
       <c r="C178" s="145"/>
       <c r="D178" s="6"/>
@@ -35482,75 +35560,75 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="2:44" ht="12.75" customHeight="1">
+    <row r="179" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ179" s="24"/>
       <c r="AR179" s="24"/>
     </row>
-    <row r="180" spans="2:44" ht="12.75" customHeight="1">
+    <row r="180" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ180" s="24"/>
       <c r="AR180" s="24"/>
     </row>
-    <row r="181" spans="2:44" ht="12.75" customHeight="1">
+    <row r="181" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ181" s="24"/>
       <c r="AR181" s="24"/>
     </row>
-    <row r="182" spans="2:44" ht="12.75" customHeight="1">
+    <row r="182" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ182" s="24"/>
       <c r="AR182" s="24"/>
     </row>
-    <row r="183" spans="2:44" ht="12.75" customHeight="1">
+    <row r="183" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ183" s="24"/>
       <c r="AR183" s="24"/>
     </row>
-    <row r="184" spans="2:44" ht="12.75" customHeight="1">
+    <row r="184" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ184" s="24"/>
       <c r="AR184" s="24"/>
     </row>
-    <row r="185" spans="2:44" ht="12.75" customHeight="1">
+    <row r="185" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ185" s="24"/>
       <c r="AR185" s="24"/>
     </row>
-    <row r="186" spans="2:44" ht="12.75" customHeight="1">
+    <row r="186" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ186" s="24"/>
       <c r="AR186" s="24"/>
     </row>
-    <row r="187" spans="2:44" ht="12.75" customHeight="1">
+    <row r="187" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ187" s="24"/>
       <c r="AR187" s="24"/>
     </row>
-    <row r="188" spans="2:44" ht="12.75" customHeight="1">
+    <row r="188" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ188" s="24"/>
       <c r="AR188" s="24"/>
     </row>
-    <row r="189" spans="2:44" ht="12.75" customHeight="1">
+    <row r="189" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ189" s="24"/>
       <c r="AR189" s="24"/>
     </row>
-    <row r="190" spans="2:44" ht="12.75" customHeight="1">
+    <row r="190" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ190" s="24"/>
       <c r="AR190" s="24"/>
     </row>
-    <row r="191" spans="2:44" ht="12.75" customHeight="1">
+    <row r="191" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ191" s="24"/>
       <c r="AR191" s="24"/>
     </row>
-    <row r="192" spans="2:44" ht="12.75" customHeight="1">
+    <row r="192" spans="2:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ192" s="24"/>
       <c r="AR192" s="24"/>
     </row>
-    <row r="193" spans="43:44" ht="12.75" customHeight="1">
+    <row r="193" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ193" s="24"/>
       <c r="AR193" s="24"/>
     </row>
-    <row r="194" spans="43:44" ht="12.75" customHeight="1">
+    <row r="194" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ194" s="24"/>
       <c r="AR194" s="24"/>
     </row>
-    <row r="195" spans="43:44" ht="12.75" customHeight="1">
+    <row r="195" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ195" s="24"/>
       <c r="AR195" s="24"/>
     </row>
-    <row r="196" spans="43:44" ht="12.75" customHeight="1">
+    <row r="196" spans="43:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AQ196" s="24"/>
       <c r="AR196" s="24"/>
     </row>
@@ -35698,77 +35776,77 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="90" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="15">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" s="15">
         <v>10</v>
       </c>
@@ -35786,25 +35864,25 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="12" width="37.28515625" customWidth="1"/>
+    <col min="3" max="12" width="37.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
-      <c r="E3" s="147" t="s">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E3" s="150" t="s">
         <v>254</v>
       </c>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
     </row>
-    <row r="5" spans="3:12" ht="18.600000000000001">
-      <c r="J5" s="148" t="s">
+    <row r="5" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="J5" s="151" t="s">
         <v>255</v>
       </c>
-      <c r="K5" s="149"/>
+      <c r="K5" s="152"/>
     </row>
-    <row r="6" spans="3:12" ht="18.600000000000001">
+    <row r="6" spans="3:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C6" s="26" t="s">
         <v>256</v>
       </c>
@@ -35836,8 +35914,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="60.75">
-      <c r="C7" s="150" t="s">
+    <row r="7" spans="3:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="C7" s="153" t="s">
         <v>266</v>
       </c>
       <c r="D7" s="74" t="s">
@@ -35856,8 +35934,8 @@
       <c r="K7" s="74"/>
       <c r="L7" s="75"/>
     </row>
-    <row r="8" spans="3:12">
-      <c r="C8" s="151"/>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C8" s="154"/>
       <c r="D8" s="74"/>
       <c r="E8" s="74"/>
       <c r="F8" s="74"/>
@@ -35868,8 +35946,8 @@
       <c r="K8" s="74"/>
       <c r="L8" s="29"/>
     </row>
-    <row r="9" spans="3:12">
-      <c r="C9" s="151"/>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C9" s="154"/>
       <c r="D9" s="74"/>
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
@@ -35880,8 +35958,8 @@
       <c r="K9" s="74"/>
       <c r="L9" s="76"/>
     </row>
-    <row r="10" spans="3:12">
-      <c r="C10" s="151"/>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C10" s="154"/>
       <c r="D10" s="74"/>
       <c r="E10" s="74"/>
       <c r="F10" s="74"/>
@@ -35892,8 +35970,8 @@
       <c r="K10" s="74"/>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="3:12">
-      <c r="C11" s="151"/>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C11" s="154"/>
       <c r="D11" s="74"/>
       <c r="E11" s="74"/>
       <c r="F11" s="74"/>
@@ -35904,8 +35982,8 @@
       <c r="K11" s="74"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="3:12">
-      <c r="C12" s="151"/>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C12" s="154"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -35916,8 +35994,8 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="3:12">
-      <c r="C13" s="151"/>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C13" s="154"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -35928,8 +36006,8 @@
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="3:12">
-      <c r="C14" s="151"/>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="154"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -35940,8 +36018,8 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="3:12">
-      <c r="C15" s="151"/>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C15" s="154"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -35952,8 +36030,8 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="3:12">
-      <c r="C16" s="151"/>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C16" s="154"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -35964,8 +36042,8 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="3:12">
-      <c r="C17" s="151"/>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="154"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
@@ -35976,8 +36054,8 @@
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="3:12">
-      <c r="C18" s="151"/>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="154"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -35988,8 +36066,8 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
     </row>
-    <row r="19" spans="3:12">
-      <c r="C19" s="151"/>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="154"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
@@ -36014,91 +36092,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED98BEE-9FDE-48A4-86A8-C4DE755C63D7}">
   <dimension ref="B1:BN81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <selection activeCell="C51" sqref="C51:C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1"/>
-    <col min="9" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
-    <col min="15" max="16" width="9.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" customWidth="1"/>
-    <col min="28" max="28" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.5703125" customWidth="1"/>
-    <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.7109375" customWidth="1"/>
-    <col min="39" max="39" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" customWidth="1"/>
-    <col min="44" max="44" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="13.7109375" customWidth="1"/>
-    <col min="47" max="47" width="19.42578125" customWidth="1"/>
-    <col min="48" max="48" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.5703125" customWidth="1"/>
-    <col min="52" max="52" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="13.7109375" customWidth="1"/>
-    <col min="55" max="55" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="13.28515625" customWidth="1"/>
-    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.7109375" customWidth="1"/>
-    <col min="63" max="63" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.140625" customWidth="1"/>
-    <col min="68" max="68" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.7109375" customWidth="1"/>
-    <col min="71" max="71" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" customWidth="1"/>
+    <col min="9" max="10" width="13.26953125" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" customWidth="1"/>
+    <col min="14" max="14" width="15.7265625" customWidth="1"/>
+    <col min="15" max="16" width="9.453125" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.26953125" customWidth="1"/>
+    <col min="20" max="20" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7265625" customWidth="1"/>
+    <col min="23" max="23" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.26953125" customWidth="1"/>
+    <col min="28" max="28" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.7265625" customWidth="1"/>
+    <col min="31" max="31" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.54296875" customWidth="1"/>
+    <col min="36" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.7265625" customWidth="1"/>
+    <col min="39" max="39" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.81640625" customWidth="1"/>
+    <col min="44" max="44" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.7265625" customWidth="1"/>
+    <col min="47" max="47" width="19.453125" customWidth="1"/>
+    <col min="48" max="48" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.54296875" customWidth="1"/>
+    <col min="52" max="52" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="13.7265625" customWidth="1"/>
+    <col min="55" max="55" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="13.26953125" customWidth="1"/>
+    <col min="60" max="60" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.7265625" customWidth="1"/>
+    <col min="63" max="63" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.1796875" customWidth="1"/>
+    <col min="68" max="68" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.7265625" customWidth="1"/>
+    <col min="71" max="71" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14"/>
-    <row r="2" spans="2:14" ht="23.25">
+    <row r="1" spans="2:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="60" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="2:14"/>
-    <row r="4" spans="2:14">
+    <row r="3" spans="2:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C4" s="18" t="s">
         <v>271</v>
       </c>
@@ -36107,10 +36185,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C7" s="13"/>
       <c r="D7" s="16" t="s">
         <v>20</v>
@@ -36129,7 +36207,7 @@
       </c>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C8" s="87" t="s">
         <v>276</v>
       </c>
@@ -36154,7 +36232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1">
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="143">
         <f>D8/$D$4</f>
         <v>0.98550724637681164</v>
@@ -36176,20 +36254,20 @@
         <v>2.8985507246376812E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="18.75">
+    <row r="10" spans="2:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C10" s="59" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C11" s="20" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C12" s="20"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C13" s="16" t="s">
         <v>279</v>
       </c>
@@ -36227,7 +36305,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C14" s="14" t="s">
         <v>2</v>
       </c>
@@ -36240,7 +36318,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="30">
-        <f>SUM(D14:E14)</f>
+        <f t="shared" ref="F14:F20" si="0">SUM(D14:E14)</f>
         <v>69</v>
       </c>
       <c r="G14" s="15">
@@ -36252,31 +36330,31 @@
         <v>0</v>
       </c>
       <c r="I14" s="30">
-        <f>F14-G14</f>
+        <f t="shared" ref="I14:I20" si="1">F14-G14</f>
         <v>29</v>
       </c>
       <c r="J14" s="30">
-        <f>F14-E14-G14</f>
+        <f t="shared" ref="J14:J20" si="2">F14-E14-G14</f>
         <v>0</v>
       </c>
       <c r="K14" s="138">
-        <f>D14/F14</f>
+        <f t="shared" ref="K14:K20" si="3">D14/F14</f>
         <v>0.57971014492753625</v>
       </c>
       <c r="L14" s="138">
-        <f>G14/F14</f>
+        <f t="shared" ref="L14:L20" si="4">G14/F14</f>
         <v>0.57971014492753625</v>
       </c>
       <c r="M14" s="138">
-        <f>I14/F14</f>
+        <f t="shared" ref="M14:M20" si="5">I14/F14</f>
         <v>0.42028985507246375</v>
       </c>
       <c r="N14" s="138">
-        <f>G14/$G$22</f>
+        <f t="shared" ref="N14:N20" si="6">G14/$G$22</f>
         <v>0.42105263157894735</v>
       </c>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C15" s="14" t="s">
         <v>3</v>
       </c>
@@ -36289,7 +36367,7 @@
         <v>48</v>
       </c>
       <c r="F15" s="30">
-        <f>SUM(D15:E15)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="G15" s="15">
@@ -36301,31 +36379,31 @@
         <v>1</v>
       </c>
       <c r="I15" s="30">
-        <f>F15-G15</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="J15" s="30">
-        <f>F15-E15-G15</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K15" s="138">
-        <f>D15/F15</f>
+        <f t="shared" si="3"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="L15" s="138">
-        <f>G15/F15</f>
+        <f t="shared" si="4"/>
         <v>0.28985507246376813</v>
       </c>
       <c r="M15" s="138">
-        <f>I15/F15</f>
+        <f t="shared" si="5"/>
         <v>0.71014492753623193</v>
       </c>
       <c r="N15" s="138">
-        <f>G15/$G$22</f>
+        <f t="shared" si="6"/>
         <v>0.21052631578947367</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C16" s="14" t="s">
         <v>8</v>
       </c>
@@ -36338,7 +36416,7 @@
         <v>53</v>
       </c>
       <c r="F16" s="30">
-        <f>SUM(D16:E16)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="G16" s="15">
@@ -36350,31 +36428,31 @@
         <v>1</v>
       </c>
       <c r="I16" s="30">
-        <f>F16-G16</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="J16" s="30">
-        <f>F16-E16-G16</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K16" s="138">
-        <f>D16/F16</f>
+        <f t="shared" si="3"/>
         <v>0.2318840579710145</v>
       </c>
       <c r="L16" s="138">
-        <f>G16/F16</f>
+        <f t="shared" si="4"/>
         <v>0.21739130434782608</v>
       </c>
       <c r="M16" s="138">
-        <f>I16/F16</f>
+        <f t="shared" si="5"/>
         <v>0.78260869565217395</v>
       </c>
       <c r="N16" s="138">
-        <f>G16/$G$22</f>
+        <f t="shared" si="6"/>
         <v>0.15789473684210525</v>
       </c>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C17" s="14" t="s">
         <v>7</v>
       </c>
@@ -36387,7 +36465,7 @@
         <v>58</v>
       </c>
       <c r="F17" s="30">
-        <f>SUM(D17:E17)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="G17" s="15">
@@ -36399,31 +36477,31 @@
         <v>0</v>
       </c>
       <c r="I17" s="30">
-        <f>F17-G17</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="J17" s="30">
-        <f>F17-E17-G17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17" s="138">
-        <f>D17/F17</f>
+        <f t="shared" si="3"/>
         <v>0.15942028985507245</v>
       </c>
       <c r="L17" s="138">
-        <f>G17/F17</f>
+        <f t="shared" si="4"/>
         <v>0.15942028985507245</v>
       </c>
       <c r="M17" s="138">
-        <f>I17/F17</f>
+        <f t="shared" si="5"/>
         <v>0.84057971014492749</v>
       </c>
       <c r="N17" s="138">
-        <f>G17/$G$22</f>
+        <f t="shared" si="6"/>
         <v>0.11578947368421053</v>
       </c>
     </row>
-    <row r="18" spans="3:14">
+    <row r="18" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C18" s="14" t="s">
         <v>4</v>
       </c>
@@ -36436,7 +36514,7 @@
         <v>63</v>
       </c>
       <c r="F18" s="30">
-        <f>SUM(D18:E18)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="G18" s="15">
@@ -36448,31 +36526,31 @@
         <v>2</v>
       </c>
       <c r="I18" s="30">
-        <f>F18-G18</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="J18" s="30">
-        <f>F18-E18-G18</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="K18" s="138">
-        <f>D18/F18</f>
+        <f t="shared" si="3"/>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="L18" s="138">
-        <f>G18/F18</f>
+        <f t="shared" si="4"/>
         <v>5.7971014492753624E-2</v>
       </c>
       <c r="M18" s="138">
-        <f>I18/F18</f>
+        <f t="shared" si="5"/>
         <v>0.94202898550724634</v>
       </c>
       <c r="N18" s="138">
-        <f>G18/$G$22</f>
+        <f t="shared" si="6"/>
         <v>4.2105263157894736E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:14">
+    <row r="19" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C19" s="14" t="s">
         <v>5</v>
       </c>
@@ -36485,7 +36563,7 @@
         <v>66</v>
       </c>
       <c r="F19" s="30">
-        <f>SUM(D19:E19)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="G19" s="15">
@@ -36497,31 +36575,31 @@
         <v>0</v>
       </c>
       <c r="I19" s="30">
-        <f>F19-G19</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="J19" s="30">
-        <f>F19-E19-G19</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K19" s="138">
-        <f>D19/F19</f>
+        <f t="shared" si="3"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="L19" s="138">
-        <f>G19/F19</f>
+        <f t="shared" si="4"/>
         <v>4.3478260869565216E-2</v>
       </c>
       <c r="M19" s="138">
-        <f>I19/F19</f>
+        <f t="shared" si="5"/>
         <v>0.95652173913043481</v>
       </c>
       <c r="N19" s="138">
-        <f>G19/$G$22</f>
+        <f t="shared" si="6"/>
         <v>3.1578947368421054E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:14">
+    <row r="20" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C20" s="14" t="s">
         <v>6</v>
       </c>
@@ -36534,7 +36612,7 @@
         <v>67</v>
       </c>
       <c r="F20" s="30">
-        <f>SUM(D20:E20)</f>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
       <c r="G20" s="15">
@@ -36546,34 +36624,34 @@
         <v>0</v>
       </c>
       <c r="I20" s="30">
-        <f>F20-G20</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="J20" s="30">
-        <f>F20-E20-G20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K20" s="138">
-        <f>D20/F20</f>
+        <f t="shared" si="3"/>
         <v>2.8985507246376812E-2</v>
       </c>
       <c r="L20" s="138">
-        <f>G20/F20</f>
+        <f t="shared" si="4"/>
         <v>2.8985507246376812E-2</v>
       </c>
       <c r="M20" s="138">
-        <f>I20/F20</f>
+        <f t="shared" si="5"/>
         <v>0.97101449275362317</v>
       </c>
       <c r="N20" s="138">
-        <f>G20/$G$22</f>
+        <f t="shared" si="6"/>
         <v>2.1052631578947368E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:14">
+    <row r="21" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C21" s="13"/>
     </row>
-    <row r="22" spans="3:14">
+    <row r="22" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C22" s="69" t="s">
         <v>290</v>
       </c>
@@ -36582,23 +36660,23 @@
         <v>99</v>
       </c>
       <c r="E22" s="70">
-        <f t="shared" ref="E22:I22" si="0">SUM(E14:E20)</f>
+        <f t="shared" ref="E22:I22" si="7">SUM(E14:E20)</f>
         <v>384</v>
       </c>
       <c r="F22" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>483</v>
       </c>
       <c r="G22" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
       <c r="H22" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="I22" s="71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>388</v>
       </c>
       <c r="J22" s="142"/>
@@ -36606,13 +36684,13 @@
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
     </row>
-    <row r="23" spans="3:14"/>
-    <row r="24" spans="3:14" ht="18.75">
+    <row r="23" spans="3:14" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="3:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C24" s="59" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="25" spans="3:14">
+    <row r="25" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C25" s="80" t="s">
         <v>279</v>
       </c>
@@ -36632,7 +36710,7 @@
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
     </row>
-    <row r="26" spans="3:14">
+    <row r="26" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C26" s="83" t="s">
         <v>2</v>
       </c>
@@ -36645,12 +36723,12 @@
         <v>82.5</v>
       </c>
       <c r="F26" s="84">
-        <f>IFERROR((D26-E26)/D26,0)</f>
+        <f t="shared" ref="F26:F33" si="8">IFERROR((D26-E26)/D26,0)</f>
         <v>0.36538461538461536</v>
       </c>
       <c r="H26" s="88"/>
     </row>
-    <row r="27" spans="3:14">
+    <row r="27" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C27" s="83" t="s">
         <v>3</v>
       </c>
@@ -36663,12 +36741,12 @@
         <v>41.5</v>
       </c>
       <c r="F27" s="84">
-        <f>IFERROR((D27-E27)/D27,0)</f>
+        <f t="shared" si="8"/>
         <v>0.18627450980392157</v>
       </c>
       <c r="H27" s="88"/>
     </row>
-    <row r="28" spans="3:14">
+    <row r="28" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C28" s="83" t="s">
         <v>4</v>
       </c>
@@ -36681,12 +36759,12 @@
         <v>5</v>
       </c>
       <c r="F28" s="84">
-        <f>IFERROR((D28-E28)/D28,0)</f>
+        <f t="shared" si="8"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="H28" s="88"/>
     </row>
-    <row r="29" spans="3:14">
+    <row r="29" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C29" s="83" t="s">
         <v>5</v>
       </c>
@@ -36699,12 +36777,12 @@
         <v>5</v>
       </c>
       <c r="F29" s="84">
-        <f>IFERROR((D29-E29)/D29,0)</f>
+        <f t="shared" si="8"/>
         <v>0.52380952380952384</v>
       </c>
       <c r="H29" s="88"/>
     </row>
-    <row r="30" spans="3:14">
+    <row r="30" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C30" s="83" t="s">
         <v>6</v>
       </c>
@@ -36717,12 +36795,12 @@
         <v>1.5</v>
       </c>
       <c r="F30" s="84">
-        <f>IFERROR((D30-E30)/D30,0)</f>
+        <f t="shared" si="8"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="H30" s="88"/>
     </row>
-    <row r="31" spans="3:14">
+    <row r="31" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C31" s="83" t="s">
         <v>7</v>
       </c>
@@ -36735,12 +36813,12 @@
         <v>12.2</v>
       </c>
       <c r="F31" s="84">
-        <f>IFERROR((D31-E31)/D31,0)</f>
+        <f t="shared" si="8"/>
         <v>0.44545454545454549</v>
       </c>
       <c r="H31" s="88"/>
     </row>
-    <row r="32" spans="3:14">
+    <row r="32" spans="3:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C32" s="85" t="s">
         <v>8</v>
       </c>
@@ -36753,12 +36831,12 @@
         <v>45.5</v>
       </c>
       <c r="F32" s="86">
-        <f ca="1">IFERROR((D32-E32)/D32,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="H32" s="88"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C33" s="69" t="s">
         <v>295</v>
       </c>
@@ -36767,11 +36845,11 @@
         <v>292</v>
       </c>
       <c r="E33" s="70">
-        <f t="shared" ref="E33" ca="1" si="1">SUM(E26:E32)</f>
+        <f t="shared" ref="E33" ca="1" si="9">SUM(E26:E32)</f>
         <v>193.2</v>
       </c>
       <c r="F33" s="72">
-        <f ca="1">IFERROR((D33-E33)/D33,0)</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0.3383561643835617</v>
       </c>
       <c r="H33" s="88"/>
@@ -36781,127 +36859,127 @@
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
     </row>
-    <row r="34" spans="2:13"/>
-    <row r="35" spans="2:13"/>
-    <row r="36" spans="2:13"/>
-    <row r="37" spans="2:13" ht="23.25">
+    <row r="34" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="60" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="23.25">
+    <row r="38" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="60"/>
     </row>
-    <row r="39" spans="2:13" ht="23.25">
+    <row r="39" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="60"/>
     </row>
-    <row r="40" spans="2:13" ht="23.25">
+    <row r="40" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="60"/>
     </row>
-    <row r="41" spans="2:13" ht="23.25">
+    <row r="41" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="60"/>
     </row>
-    <row r="42" spans="2:13" ht="23.25">
+    <row r="42" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="60"/>
     </row>
-    <row r="43" spans="2:13" ht="23.25">
+    <row r="43" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="60"/>
     </row>
-    <row r="44" spans="2:13" ht="23.25">
+    <row r="44" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="60"/>
     </row>
-    <row r="45" spans="2:13" ht="23.25">
+    <row r="45" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="60"/>
     </row>
-    <row r="46" spans="2:13" ht="23.25">
+    <row r="46" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="60"/>
     </row>
-    <row r="47" spans="2:13" ht="23.25">
+    <row r="47" spans="2:13" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="60"/>
     </row>
-    <row r="48" spans="2:13"/>
-    <row r="49" spans="3:66" ht="14.45" customHeight="1">
-      <c r="D49" s="161" t="s">
+    <row r="48" spans="2:13" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="3:66" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D49" s="164" t="s">
         <v>297</v>
       </c>
-      <c r="E49" s="162"/>
-      <c r="F49" s="162"/>
-      <c r="G49" s="162"/>
-      <c r="H49" s="162"/>
-      <c r="I49" s="162"/>
-      <c r="J49" s="163"/>
-      <c r="K49" s="164" t="s">
+      <c r="E49" s="165"/>
+      <c r="F49" s="165"/>
+      <c r="G49" s="165"/>
+      <c r="H49" s="165"/>
+      <c r="I49" s="165"/>
+      <c r="J49" s="166"/>
+      <c r="K49" s="167" t="s">
         <v>298</v>
       </c>
-      <c r="L49" s="165"/>
-      <c r="M49" s="165"/>
-      <c r="N49" s="165"/>
-      <c r="O49" s="165"/>
-      <c r="P49" s="165"/>
-      <c r="Q49" s="165"/>
-      <c r="R49" s="166"/>
-      <c r="S49" s="167" t="s">
+      <c r="L49" s="168"/>
+      <c r="M49" s="168"/>
+      <c r="N49" s="168"/>
+      <c r="O49" s="168"/>
+      <c r="P49" s="168"/>
+      <c r="Q49" s="168"/>
+      <c r="R49" s="169"/>
+      <c r="S49" s="170" t="s">
         <v>299</v>
       </c>
-      <c r="T49" s="168"/>
-      <c r="U49" s="168"/>
-      <c r="V49" s="168"/>
-      <c r="W49" s="168"/>
-      <c r="X49" s="168"/>
-      <c r="Y49" s="168"/>
-      <c r="Z49" s="169"/>
-      <c r="AA49" s="170" t="s">
+      <c r="T49" s="171"/>
+      <c r="U49" s="171"/>
+      <c r="V49" s="171"/>
+      <c r="W49" s="171"/>
+      <c r="X49" s="171"/>
+      <c r="Y49" s="171"/>
+      <c r="Z49" s="172"/>
+      <c r="AA49" s="173" t="s">
         <v>300</v>
       </c>
-      <c r="AB49" s="171"/>
-      <c r="AC49" s="171"/>
-      <c r="AD49" s="171"/>
-      <c r="AE49" s="171"/>
-      <c r="AF49" s="171"/>
-      <c r="AG49" s="171"/>
-      <c r="AH49" s="172"/>
-      <c r="AI49" s="173" t="s">
+      <c r="AB49" s="174"/>
+      <c r="AC49" s="174"/>
+      <c r="AD49" s="174"/>
+      <c r="AE49" s="174"/>
+      <c r="AF49" s="174"/>
+      <c r="AG49" s="174"/>
+      <c r="AH49" s="175"/>
+      <c r="AI49" s="176" t="s">
         <v>301</v>
       </c>
-      <c r="AJ49" s="174"/>
-      <c r="AK49" s="174"/>
-      <c r="AL49" s="174"/>
-      <c r="AM49" s="174"/>
-      <c r="AN49" s="174"/>
-      <c r="AO49" s="174"/>
-      <c r="AP49" s="175"/>
-      <c r="AQ49" s="152" t="s">
+      <c r="AJ49" s="177"/>
+      <c r="AK49" s="177"/>
+      <c r="AL49" s="177"/>
+      <c r="AM49" s="177"/>
+      <c r="AN49" s="177"/>
+      <c r="AO49" s="177"/>
+      <c r="AP49" s="178"/>
+      <c r="AQ49" s="155" t="s">
         <v>302</v>
       </c>
-      <c r="AR49" s="153"/>
-      <c r="AS49" s="153"/>
-      <c r="AT49" s="153"/>
-      <c r="AU49" s="153"/>
-      <c r="AV49" s="153"/>
-      <c r="AW49" s="153"/>
-      <c r="AX49" s="154"/>
-      <c r="AY49" s="155" t="s">
+      <c r="AR49" s="156"/>
+      <c r="AS49" s="156"/>
+      <c r="AT49" s="156"/>
+      <c r="AU49" s="156"/>
+      <c r="AV49" s="156"/>
+      <c r="AW49" s="156"/>
+      <c r="AX49" s="157"/>
+      <c r="AY49" s="158" t="s">
         <v>303</v>
       </c>
-      <c r="AZ49" s="156"/>
-      <c r="BA49" s="156"/>
-      <c r="BB49" s="156"/>
-      <c r="BC49" s="156"/>
-      <c r="BD49" s="156"/>
-      <c r="BE49" s="156"/>
-      <c r="BF49" s="157"/>
-      <c r="BG49" s="158" t="s">
+      <c r="AZ49" s="159"/>
+      <c r="BA49" s="159"/>
+      <c r="BB49" s="159"/>
+      <c r="BC49" s="159"/>
+      <c r="BD49" s="159"/>
+      <c r="BE49" s="159"/>
+      <c r="BF49" s="160"/>
+      <c r="BG49" s="161" t="s">
         <v>304</v>
       </c>
-      <c r="BH49" s="159"/>
-      <c r="BI49" s="159"/>
-      <c r="BJ49" s="159"/>
-      <c r="BK49" s="159"/>
-      <c r="BL49" s="159"/>
-      <c r="BM49" s="159"/>
-      <c r="BN49" s="160"/>
+      <c r="BH49" s="162"/>
+      <c r="BI49" s="162"/>
+      <c r="BJ49" s="162"/>
+      <c r="BK49" s="162"/>
+      <c r="BL49" s="162"/>
+      <c r="BM49" s="162"/>
+      <c r="BN49" s="163"/>
     </row>
-    <row r="50" spans="3:66">
+    <row r="50" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C50" s="16" t="s">
         <v>10</v>
       </c>
@@ -37095,7 +37173,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="51" spans="3:66">
+    <row r="51" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C51" s="146" cm="1">
         <f t="array" ref="C51:C75">_xlfn.UNIQUE(AdopcionIA!$C$6:$C$507)</f>
         <v>21</v>
@@ -37109,7 +37187,7 @@
         <v>8</v>
       </c>
       <c r="F51" s="51">
-        <f>IFERROR((D51-E51)/D51,0)</f>
+        <f t="shared" ref="F51:F57" si="10">IFERROR((D51-E51)/D51,0)</f>
         <v>0.5</v>
       </c>
       <c r="G51" s="38">
@@ -37137,7 +37215,7 @@
         <v>1</v>
       </c>
       <c r="M51" s="51">
-        <f>IFERROR((K51-L51)/K51,0)</f>
+        <f t="shared" ref="M51:M57" si="11">IFERROR((K51-L51)/K51,0)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="N51" s="17">
@@ -37169,7 +37247,7 @@
         <v>0.5</v>
       </c>
       <c r="U51" s="52">
-        <f t="shared" ref="U51:U57" si="2">IFERROR((S51-T51)/S51,0)</f>
+        <f t="shared" ref="U51:U57" si="12">IFERROR((S51-T51)/S51,0)</f>
         <v>0.5</v>
       </c>
       <c r="V51" s="41">
@@ -37353,7 +37431,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="52" spans="3:66">
+    <row r="52" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C52" s="146">
         <v>22</v>
       </c>
@@ -37366,7 +37444,7 @@
         <v>16.5</v>
       </c>
       <c r="F52" s="51">
-        <f>IFERROR((D52-E52)/D52,0)</f>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="G52" s="38">
@@ -37394,7 +37472,7 @@
         <v>8.5</v>
       </c>
       <c r="M52" s="51">
-        <f>IFERROR((K52-L52)/K52,0)</f>
+        <f t="shared" si="11"/>
         <v>0.43333333333333335</v>
       </c>
       <c r="N52" s="17">
@@ -37426,7 +37504,7 @@
         <v>0.5</v>
       </c>
       <c r="U52" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="V52" s="41">
@@ -37458,7 +37536,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="51">
-        <f t="shared" ref="AC52:AC55" si="3">IFERROR((AA52-AB52)/AA52,0)</f>
+        <f t="shared" ref="AC52:AC55" si="13">IFERROR((AA52-AB52)/AA52,0)</f>
         <v>0</v>
       </c>
       <c r="AD52" s="46">
@@ -37490,7 +37568,7 @@
         <v>3</v>
       </c>
       <c r="AK52" s="51">
-        <f t="shared" ref="AK52:AK55" si="4">IFERROR((AI52-AJ52)/AI52,0)</f>
+        <f t="shared" ref="AK52:AK55" si="14">IFERROR((AI52-AJ52)/AI52,0)</f>
         <v>0.625</v>
       </c>
       <c r="AL52" s="50">
@@ -37522,7 +37600,7 @@
         <v>1</v>
       </c>
       <c r="AS52" s="51">
-        <f t="shared" ref="AS52:AS55" si="5">IFERROR((AQ52-AR52)/AQ52,0)</f>
+        <f t="shared" ref="AS52:AS55" si="15">IFERROR((AQ52-AR52)/AQ52,0)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AT52" s="58">
@@ -37554,7 +37632,7 @@
         <v>1</v>
       </c>
       <c r="BA52" s="51">
-        <f t="shared" ref="BA52:BA55" si="6">IFERROR((AY52-AZ52)/AY52,0)</f>
+        <f t="shared" ref="BA52:BA55" si="16">IFERROR((AY52-AZ52)/AY52,0)</f>
         <v>0.5</v>
       </c>
       <c r="BB52" s="64">
@@ -37586,7 +37664,7 @@
         <v>2.5</v>
       </c>
       <c r="BI52" s="51">
-        <f t="shared" ref="BI52:BI55" si="7">IFERROR((BG52-BH52)/BG52,0)</f>
+        <f t="shared" ref="BI52:BI55" si="17">IFERROR((BG52-BH52)/BG52,0)</f>
         <v>0.375</v>
       </c>
       <c r="BJ52" s="68">
@@ -37610,7 +37688,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="53" spans="3:66">
+    <row r="53" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C53" s="146">
         <v>23</v>
       </c>
@@ -37623,7 +37701,7 @@
         <v>20.5</v>
       </c>
       <c r="F53" s="51">
-        <f>IFERROR((D53-E53)/D53,0)</f>
+        <f t="shared" si="10"/>
         <v>0.46052631578947367</v>
       </c>
       <c r="G53" s="38">
@@ -37651,7 +37729,7 @@
         <v>16</v>
       </c>
       <c r="M53" s="51">
-        <f>IFERROR((K53-L53)/K53,0)</f>
+        <f t="shared" si="11"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="N53" s="17">
@@ -37683,7 +37761,7 @@
         <v>1.5</v>
       </c>
       <c r="U53" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="V53" s="41">
@@ -37715,7 +37793,7 @@
         <v>1</v>
       </c>
       <c r="AC53" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AD53" s="46">
@@ -37747,7 +37825,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL53" s="50">
@@ -37779,7 +37857,7 @@
         <v>0</v>
       </c>
       <c r="AS53" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT53" s="58">
@@ -37811,7 +37889,7 @@
         <v>0</v>
       </c>
       <c r="BA53" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB53" s="64">
@@ -37843,7 +37921,7 @@
         <v>2</v>
       </c>
       <c r="BI53" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="BJ53" s="68">
@@ -37867,7 +37945,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="54" spans="3:66">
+    <row r="54" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C54" s="146" t="str">
         <v>T49</v>
       </c>
@@ -37880,7 +37958,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="51">
-        <f>IFERROR((D54-E54)/D54,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G54" s="38">
@@ -37908,7 +37986,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="51">
-        <f>IFERROR((K54-L54)/K54,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N54" s="17">
@@ -37940,7 +38018,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V54" s="41">
@@ -37972,7 +38050,7 @@
         <v>2</v>
       </c>
       <c r="AC54" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD54" s="46">
@@ -38004,7 +38082,7 @@
         <v>0</v>
       </c>
       <c r="AK54" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL54" s="50">
@@ -38036,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="AS54" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT54" s="58">
@@ -38068,7 +38146,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB54" s="64">
@@ -38100,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="BI54" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="BJ54" s="68">
@@ -38124,7 +38202,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="55" spans="3:66">
+    <row r="55" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C55" s="146" t="str">
         <v>SP16</v>
       </c>
@@ -38137,7 +38215,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="51">
-        <f>IFERROR((D55-E55)/D55,0)</f>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="G55" s="38">
@@ -38165,7 +38243,7 @@
         <v>3</v>
       </c>
       <c r="M55" s="54">
-        <f>IFERROR((K55-L55)/K55,0)</f>
+        <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
       <c r="N55" s="17">
@@ -38197,7 +38275,7 @@
         <v>0</v>
       </c>
       <c r="U55" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V55" s="41">
@@ -38229,7 +38307,7 @@
         <v>0</v>
       </c>
       <c r="AC55" s="51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD55" s="46">
@@ -38261,7 +38339,7 @@
         <v>0</v>
       </c>
       <c r="AK55" s="51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AL55" s="50">
@@ -38293,7 +38371,7 @@
         <v>0</v>
       </c>
       <c r="AS55" s="51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AT55" s="58">
@@ -38325,7 +38403,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BB55" s="64">
@@ -38357,7 +38435,7 @@
         <v>3</v>
       </c>
       <c r="BI55" s="51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="17"/>
         <v>0.25</v>
       </c>
       <c r="BJ55" s="68">
@@ -38381,7 +38459,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="56" spans="3:66">
+    <row r="56" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C56" s="146" t="str">
         <v>SP17</v>
       </c>
@@ -38394,7 +38472,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="51">
-        <f>IFERROR((D56-E56)/D56,0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G56" s="38">
@@ -38422,7 +38500,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="54">
-        <f>IFERROR((K56-L56)/K56,0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N56" s="17">
@@ -38454,7 +38532,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V56" s="41">
@@ -38486,7 +38564,7 @@
         <v>0</v>
       </c>
       <c r="AC56" s="51">
-        <f t="shared" ref="AC56:AC57" si="8">IFERROR((AA56-AB56)/AA56,0)</f>
+        <f t="shared" ref="AC56:AC57" si="18">IFERROR((AA56-AB56)/AA56,0)</f>
         <v>0</v>
       </c>
       <c r="AD56" s="46">
@@ -38518,7 +38596,7 @@
         <v>0</v>
       </c>
       <c r="AK56" s="51">
-        <f t="shared" ref="AK56:AK57" si="9">IFERROR((AI56-AJ56)/AI56,0)</f>
+        <f t="shared" ref="AK56:AK57" si="19">IFERROR((AI56-AJ56)/AI56,0)</f>
         <v>0</v>
       </c>
       <c r="AL56" s="50">
@@ -38550,7 +38628,7 @@
         <v>0</v>
       </c>
       <c r="AS56" s="51">
-        <f t="shared" ref="AS56:AS57" si="10">IFERROR((AQ56-AR56)/AQ56,0)</f>
+        <f t="shared" ref="AS56:AS57" si="20">IFERROR((AQ56-AR56)/AQ56,0)</f>
         <v>0</v>
       </c>
       <c r="AT56" s="58">
@@ -38582,7 +38660,7 @@
         <v>0</v>
       </c>
       <c r="BA56" s="51">
-        <f t="shared" ref="BA56:BA57" si="11">IFERROR((AY56-AZ56)/AY56,0)</f>
+        <f t="shared" ref="BA56:BA57" si="21">IFERROR((AY56-AZ56)/AY56,0)</f>
         <v>0</v>
       </c>
       <c r="BB56" s="64">
@@ -38614,7 +38692,7 @@
         <v>0</v>
       </c>
       <c r="BI56" s="51">
-        <f t="shared" ref="BI56:BI57" si="12">IFERROR((BG56-BH56)/BG56,0)</f>
+        <f t="shared" ref="BI56:BI57" si="22">IFERROR((BG56-BH56)/BG56,0)</f>
         <v>0</v>
       </c>
       <c r="BJ56" s="68">
@@ -38638,7 +38716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:66" ht="15" customHeight="1">
+    <row r="57" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C57" s="146" t="str">
         <v>Fase 2</v>
       </c>
@@ -38651,7 +38729,7 @@
         <v>4</v>
       </c>
       <c r="F57" s="51">
-        <f>IFERROR((D57-E57)/D57,0)</f>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G57" s="38">
@@ -38679,7 +38757,7 @@
         <v>3</v>
       </c>
       <c r="M57" s="51">
-        <f>IFERROR((K57-L57)/K57,0)</f>
+        <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
       <c r="N57" s="17">
@@ -38711,7 +38789,7 @@
         <v>0</v>
       </c>
       <c r="U57" s="52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V57" s="41">
@@ -38743,7 +38821,7 @@
         <v>0</v>
       </c>
       <c r="AC57" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD57" s="46">
@@ -38775,7 +38853,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AL57" s="50">
@@ -38807,7 +38885,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AT57" s="58">
@@ -38839,7 +38917,7 @@
         <v>1</v>
       </c>
       <c r="BA57" s="51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="BB57" s="64">
@@ -38871,7 +38949,7 @@
         <v>0</v>
       </c>
       <c r="BI57" s="51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BJ57" s="68">
@@ -38895,7 +38973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:66" ht="15" customHeight="1">
+    <row r="58" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C58" s="146" t="str">
         <v>T52</v>
       </c>
@@ -38908,7 +38986,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="51">
-        <f t="shared" ref="F58:F75" si="13">IFERROR((D58-E58)/D58,0)</f>
+        <f t="shared" ref="F58:F75" si="23">IFERROR((D58-E58)/D58,0)</f>
         <v>0.5</v>
       </c>
       <c r="G58" s="38">
@@ -38936,7 +39014,7 @@
         <v>2</v>
       </c>
       <c r="M58" s="51">
-        <f t="shared" ref="M58:M75" si="14">IFERROR((K58-L58)/K58,0)</f>
+        <f t="shared" ref="M58:M75" si="24">IFERROR((K58-L58)/K58,0)</f>
         <v>0.5</v>
       </c>
       <c r="N58" s="17">
@@ -38968,7 +39046,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="52">
-        <f t="shared" ref="U58:U75" si="15">IFERROR((S58-T58)/S58,0)</f>
+        <f t="shared" ref="U58:U75" si="25">IFERROR((S58-T58)/S58,0)</f>
         <v>0</v>
       </c>
       <c r="V58" s="41">
@@ -39000,7 +39078,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="51">
-        <f t="shared" ref="AC58:AC75" si="16">IFERROR((AA58-AB58)/AA58,0)</f>
+        <f t="shared" ref="AC58:AC75" si="26">IFERROR((AA58-AB58)/AA58,0)</f>
         <v>0</v>
       </c>
       <c r="AD58" s="46">
@@ -39032,7 +39110,7 @@
         <v>0</v>
       </c>
       <c r="AK58" s="51">
-        <f t="shared" ref="AK58:AK75" si="17">IFERROR((AI58-AJ58)/AI58,0)</f>
+        <f t="shared" ref="AK58:AK75" si="27">IFERROR((AI58-AJ58)/AI58,0)</f>
         <v>0</v>
       </c>
       <c r="AL58" s="50">
@@ -39064,7 +39142,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="51">
-        <f t="shared" ref="AS58:AS75" si="18">IFERROR((AQ58-AR58)/AQ58,0)</f>
+        <f t="shared" ref="AS58:AS75" si="28">IFERROR((AQ58-AR58)/AQ58,0)</f>
         <v>0</v>
       </c>
       <c r="AT58" s="58">
@@ -39096,7 +39174,7 @@
         <v>0</v>
       </c>
       <c r="BA58" s="51">
-        <f t="shared" ref="BA58:BA75" si="19">IFERROR((AY58-AZ58)/AY58,0)</f>
+        <f t="shared" ref="BA58:BA75" si="29">IFERROR((AY58-AZ58)/AY58,0)</f>
         <v>0</v>
       </c>
       <c r="BB58" s="64">
@@ -39128,7 +39206,7 @@
         <v>0</v>
       </c>
       <c r="BI58" s="51">
-        <f t="shared" ref="BI58:BI75" si="20">IFERROR((BG58-BH58)/BG58,0)</f>
+        <f t="shared" ref="BI58:BI75" si="30">IFERROR((BG58-BH58)/BG58,0)</f>
         <v>0</v>
       </c>
       <c r="BJ58" s="68">
@@ -39152,7 +39230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:66">
+    <row r="59" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C59" s="146" t="str">
         <v>T53</v>
       </c>
@@ -39165,7 +39243,7 @@
         <v>2</v>
       </c>
       <c r="F59" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="G59" s="38">
@@ -39193,7 +39271,7 @@
         <v>2</v>
       </c>
       <c r="M59" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
       <c r="N59" s="17">
@@ -39225,7 +39303,7 @@
         <v>0</v>
       </c>
       <c r="U59" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V59" s="41">
@@ -39257,7 +39335,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD59" s="46">
@@ -39289,7 +39367,7 @@
         <v>0</v>
       </c>
       <c r="AK59" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL59" s="50">
@@ -39321,7 +39399,7 @@
         <v>0</v>
       </c>
       <c r="AS59" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT59" s="58">
@@ -39353,7 +39431,7 @@
         <v>0</v>
       </c>
       <c r="BA59" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BB59" s="64">
@@ -39385,7 +39463,7 @@
         <v>0</v>
       </c>
       <c r="BI59" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BJ59" s="68">
@@ -39409,7 +39487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:66">
+    <row r="60" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C60" s="146">
         <v>25</v>
       </c>
@@ -39422,7 +39500,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="G60" s="38">
@@ -39450,7 +39528,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N60" s="17">
@@ -39482,7 +39560,7 @@
         <v>1.5</v>
       </c>
       <c r="U60" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.25</v>
       </c>
       <c r="V60" s="41">
@@ -39514,7 +39592,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD60" s="46">
@@ -39546,7 +39624,7 @@
         <v>0</v>
       </c>
       <c r="AK60" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL60" s="50">
@@ -39578,7 +39656,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT60" s="58">
@@ -39610,7 +39688,7 @@
         <v>0</v>
       </c>
       <c r="BA60" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BB60" s="64">
@@ -39642,7 +39720,7 @@
         <v>0.5</v>
       </c>
       <c r="BI60" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.75</v>
       </c>
       <c r="BJ60" s="68">
@@ -39666,7 +39744,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="61" spans="3:66">
+    <row r="61" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C61" s="146">
         <v>16</v>
       </c>
@@ -39679,7 +39757,7 @@
         <v>9</v>
       </c>
       <c r="F61" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="G61" s="38">
@@ -39707,7 +39785,7 @@
         <v>3</v>
       </c>
       <c r="M61" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
       <c r="N61" s="17">
@@ -39739,7 +39817,7 @@
         <v>5</v>
       </c>
       <c r="U61" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="V61" s="41">
@@ -39771,7 +39849,7 @@
         <v>1</v>
       </c>
       <c r="AC61" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AD61" s="46">
@@ -39803,7 +39881,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL61" s="50">
@@ -39835,7 +39913,7 @@
         <v>0</v>
       </c>
       <c r="AS61" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT61" s="58">
@@ -39867,7 +39945,7 @@
         <v>0</v>
       </c>
       <c r="BA61" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BB61" s="64">
@@ -39899,7 +39977,7 @@
         <v>0</v>
       </c>
       <c r="BI61" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BJ61" s="68">
@@ -39923,7 +40001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:66">
+    <row r="62" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C62" s="146">
         <v>17</v>
       </c>
@@ -39936,7 +40014,7 @@
         <v>4</v>
       </c>
       <c r="F62" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.2</v>
       </c>
       <c r="G62" s="38">
@@ -39964,7 +40042,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N62" s="17">
@@ -39996,7 +40074,7 @@
         <v>4</v>
       </c>
       <c r="U62" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.2</v>
       </c>
       <c r="V62" s="41">
@@ -40028,7 +40106,7 @@
         <v>0</v>
       </c>
       <c r="AC62" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD62" s="46">
@@ -40060,7 +40138,7 @@
         <v>0</v>
       </c>
       <c r="AK62" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL62" s="50">
@@ -40092,7 +40170,7 @@
         <v>0</v>
       </c>
       <c r="AS62" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT62" s="58">
@@ -40124,7 +40202,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BB62" s="64">
@@ -40156,7 +40234,7 @@
         <v>0</v>
       </c>
       <c r="BI62" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BJ62" s="68">
@@ -40180,7 +40258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:66">
+    <row r="63" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C63" s="146">
         <v>24</v>
       </c>
@@ -40193,7 +40271,7 @@
         <v>30.5</v>
       </c>
       <c r="F63" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.43518518518518517</v>
       </c>
       <c r="G63" s="38">
@@ -40221,7 +40299,7 @@
         <v>10.5</v>
       </c>
       <c r="M63" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="N63" s="17">
@@ -40253,7 +40331,7 @@
         <v>3.5</v>
       </c>
       <c r="U63" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
       <c r="V63" s="41">
@@ -40285,7 +40363,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD63" s="46">
@@ -40317,7 +40395,7 @@
         <v>0</v>
       </c>
       <c r="AK63" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL63" s="50">
@@ -40349,7 +40427,7 @@
         <v>0</v>
       </c>
       <c r="AS63" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT63" s="58">
@@ -40381,7 +40459,7 @@
         <v>2</v>
       </c>
       <c r="BA63" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="BB63" s="64">
@@ -40413,7 +40491,7 @@
         <v>14.5</v>
       </c>
       <c r="BI63" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.30952380952380953</v>
       </c>
       <c r="BJ63" s="68">
@@ -40437,7 +40515,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="64" spans="3:66">
+    <row r="64" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C64" s="146">
         <v>26</v>
       </c>
@@ -40450,7 +40528,7 @@
         <v>1.5</v>
       </c>
       <c r="F64" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="G64" s="38">
@@ -40478,7 +40556,7 @@
         <v>1.5</v>
       </c>
       <c r="M64" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
       <c r="N64" s="17">
@@ -40510,7 +40588,7 @@
         <v>0</v>
       </c>
       <c r="U64" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V64" s="41">
@@ -40542,7 +40620,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD64" s="46">
@@ -40574,7 +40652,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL64" s="50">
@@ -40606,7 +40684,7 @@
         <v>0</v>
       </c>
       <c r="AS64" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT64" s="58">
@@ -40638,7 +40716,7 @@
         <v>0</v>
       </c>
       <c r="BA64" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BB64" s="64">
@@ -40670,7 +40748,7 @@
         <v>0</v>
       </c>
       <c r="BI64" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BJ64" s="68">
@@ -40694,7 +40772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:66">
+    <row r="65" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C65" s="146" t="str">
         <v>T55</v>
       </c>
@@ -40707,7 +40785,7 @@
         <v>9</v>
       </c>
       <c r="F65" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="G65" s="38">
@@ -40735,7 +40813,7 @@
         <v>3</v>
       </c>
       <c r="M65" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.25</v>
       </c>
       <c r="N65" s="17">
@@ -40767,7 +40845,7 @@
         <v>4</v>
       </c>
       <c r="U65" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="V65" s="41">
@@ -40799,7 +40877,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD65" s="46">
@@ -40831,7 +40909,7 @@
         <v>0</v>
       </c>
       <c r="AK65" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL65" s="50">
@@ -40863,7 +40941,7 @@
         <v>0</v>
       </c>
       <c r="AS65" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT65" s="58">
@@ -40895,7 +40973,7 @@
         <v>2</v>
       </c>
       <c r="BA65" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="BB65" s="64">
@@ -40927,7 +41005,7 @@
         <v>0</v>
       </c>
       <c r="BI65" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BJ65" s="68">
@@ -40951,7 +41029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:66">
+    <row r="66" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C66" s="146" t="str">
         <v>TM31</v>
       </c>
@@ -40964,7 +41042,7 @@
         <v>23.5</v>
       </c>
       <c r="F66" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>-0.6785714285714286</v>
       </c>
       <c r="G66" s="38">
@@ -40992,7 +41070,7 @@
         <v>10</v>
       </c>
       <c r="M66" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="N66" s="17">
@@ -41024,7 +41102,7 @@
         <v>9</v>
       </c>
       <c r="U66" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-0.5</v>
       </c>
       <c r="V66" s="41">
@@ -41056,7 +41134,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD66" s="46">
@@ -41088,7 +41166,7 @@
         <v>1</v>
       </c>
       <c r="AK66" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>-1</v>
       </c>
       <c r="AL66" s="50">
@@ -41120,7 +41198,7 @@
         <v>0.5</v>
       </c>
       <c r="AS66" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT66" s="58">
@@ -41152,7 +41230,7 @@
         <v>3</v>
       </c>
       <c r="BA66" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>-2</v>
       </c>
       <c r="BB66" s="64">
@@ -41184,7 +41262,7 @@
         <v>0</v>
       </c>
       <c r="BI66" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BJ66" s="68">
@@ -41208,7 +41286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:66" ht="15" customHeight="1">
+    <row r="67" spans="3:66" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C67" s="146" t="str">
         <v>TM30</v>
       </c>
@@ -41221,7 +41299,7 @@
         <v>2.5</v>
       </c>
       <c r="F67" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="G67" s="38">
@@ -41249,7 +41327,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N67" s="17">
@@ -41281,7 +41359,7 @@
         <v>0</v>
       </c>
       <c r="U67" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V67" s="41">
@@ -41313,7 +41391,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD67" s="46">
@@ -41345,7 +41423,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL67" s="50">
@@ -41377,7 +41455,7 @@
         <v>0</v>
       </c>
       <c r="AS67" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT67" s="58">
@@ -41409,7 +41487,7 @@
         <v>0</v>
       </c>
       <c r="BA67" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BB67" s="64">
@@ -41441,7 +41519,7 @@
         <v>2.5</v>
       </c>
       <c r="BI67" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="BJ67" s="68">
@@ -41465,7 +41543,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="68" spans="3:66">
+    <row r="68" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C68" s="146">
         <v>20</v>
       </c>
@@ -41478,7 +41556,7 @@
         <v>10</v>
       </c>
       <c r="F68" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G68" s="38">
@@ -41506,7 +41584,7 @@
         <v>2</v>
       </c>
       <c r="M68" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
       <c r="N68" s="17">
@@ -41538,7 +41616,7 @@
         <v>0</v>
       </c>
       <c r="U68" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V68" s="41">
@@ -41570,7 +41648,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD68" s="46">
@@ -41602,7 +41680,7 @@
         <v>0</v>
       </c>
       <c r="AK68" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL68" s="50">
@@ -41634,7 +41712,7 @@
         <v>0</v>
       </c>
       <c r="AS68" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT68" s="58">
@@ -41666,7 +41744,7 @@
         <v>0</v>
       </c>
       <c r="BA68" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BB68" s="64">
@@ -41698,7 +41776,7 @@
         <v>8</v>
       </c>
       <c r="BI68" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BJ68" s="68">
@@ -41722,7 +41800,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="69" spans="3:66">
+    <row r="69" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C69" s="146" t="str">
         <v>PDCF</v>
       </c>
@@ -41735,7 +41813,7 @@
         <v>10</v>
       </c>
       <c r="F69" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G69" s="38">
@@ -41763,7 +41841,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N69" s="17">
@@ -41795,7 +41873,7 @@
         <v>0</v>
       </c>
       <c r="U69" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V69" s="41">
@@ -41827,7 +41905,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD69" s="46">
@@ -41859,7 +41937,7 @@
         <v>0</v>
       </c>
       <c r="AK69" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL69" s="50">
@@ -41891,7 +41969,7 @@
         <v>0</v>
       </c>
       <c r="AS69" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT69" s="58">
@@ -41923,7 +42001,7 @@
         <v>0</v>
       </c>
       <c r="BA69" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BB69" s="64">
@@ -41955,7 +42033,7 @@
         <v>10</v>
       </c>
       <c r="BI69" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BJ69" s="68">
@@ -41979,7 +42057,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="70" spans="3:66">
+    <row r="70" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C70" s="146">
         <v>4</v>
       </c>
@@ -41992,7 +42070,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.6875</v>
       </c>
       <c r="G70" s="38">
@@ -42020,7 +42098,7 @@
         <v>1</v>
       </c>
       <c r="M70" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="N70" s="17">
@@ -42052,7 +42130,7 @@
         <v>1</v>
       </c>
       <c r="U70" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0.75</v>
       </c>
       <c r="V70" s="41">
@@ -42084,7 +42162,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD70" s="46">
@@ -42116,7 +42194,7 @@
         <v>1</v>
       </c>
       <c r="AK70" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0.5</v>
       </c>
       <c r="AL70" s="50">
@@ -42148,7 +42226,7 @@
         <v>0</v>
       </c>
       <c r="AS70" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT70" s="58">
@@ -42180,7 +42258,7 @@
         <v>2</v>
       </c>
       <c r="BA70" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.5</v>
       </c>
       <c r="BB70" s="64">
@@ -42212,7 +42290,7 @@
         <v>0</v>
       </c>
       <c r="BI70" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BJ70" s="68">
@@ -42236,7 +42314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:66">
+    <row r="71" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C71" s="146" t="str">
         <v>T4</v>
       </c>
@@ -42249,7 +42327,7 @@
         <v>0.2</v>
       </c>
       <c r="F71" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.9</v>
       </c>
       <c r="G71" s="38">
@@ -42277,7 +42355,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N71" s="17">
@@ -42309,7 +42387,7 @@
         <v>0</v>
       </c>
       <c r="U71" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V71" s="41">
@@ -42341,7 +42419,7 @@
         <v>0</v>
       </c>
       <c r="AC71" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD71" s="46">
@@ -42373,7 +42451,7 @@
         <v>0</v>
       </c>
       <c r="AK71" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL71" s="50">
@@ -42405,7 +42483,7 @@
         <v>0</v>
       </c>
       <c r="AS71" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT71" s="58">
@@ -42437,7 +42515,7 @@
         <v>0.2</v>
       </c>
       <c r="BA71" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0.9</v>
       </c>
       <c r="BB71" s="64">
@@ -42469,7 +42547,7 @@
         <v>0</v>
       </c>
       <c r="BI71" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BJ71" s="68">
@@ -42493,7 +42571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:66">
+    <row r="72" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C72" s="146" t="str">
         <v>T54</v>
       </c>
@@ -42506,7 +42584,7 @@
         <v>19</v>
       </c>
       <c r="F72" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G72" s="38">
@@ -42534,7 +42612,7 @@
         <v>11</v>
       </c>
       <c r="M72" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N72" s="17">
@@ -42566,7 +42644,7 @@
         <v>8</v>
       </c>
       <c r="U72" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V72" s="41">
@@ -42598,7 +42676,7 @@
         <v>0</v>
       </c>
       <c r="AC72" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD72" s="46">
@@ -42630,7 +42708,7 @@
         <v>0</v>
       </c>
       <c r="AK72" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL72" s="50">
@@ -42662,7 +42740,7 @@
         <v>0</v>
       </c>
       <c r="AS72" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT72" s="58">
@@ -42694,7 +42772,7 @@
         <v>0</v>
       </c>
       <c r="BA72" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BB72" s="64">
@@ -42726,7 +42804,7 @@
         <v>0</v>
       </c>
       <c r="BI72" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BJ72" s="68">
@@ -42750,7 +42828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:66">
+    <row r="73" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C73" s="146">
         <v>27</v>
       </c>
@@ -42763,7 +42841,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
       <c r="G73" s="38">
@@ -42791,7 +42869,7 @@
         <v>3</v>
       </c>
       <c r="M73" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0.4</v>
       </c>
       <c r="N73" s="17">
@@ -42823,7 +42901,7 @@
         <v>0</v>
       </c>
       <c r="U73" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V73" s="41">
@@ -42855,7 +42933,7 @@
         <v>0</v>
       </c>
       <c r="AC73" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD73" s="46">
@@ -42887,7 +42965,7 @@
         <v>0</v>
       </c>
       <c r="AK73" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL73" s="50">
@@ -42919,7 +42997,7 @@
         <v>0</v>
       </c>
       <c r="AS73" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT73" s="58">
@@ -42951,7 +43029,7 @@
         <v>0</v>
       </c>
       <c r="BA73" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BB73" s="64">
@@ -42983,7 +43061,7 @@
         <v>0</v>
       </c>
       <c r="BI73" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BJ73" s="68">
@@ -43007,7 +43085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:66">
+    <row r="74" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C74" s="146" t="str">
         <v>TM32</v>
       </c>
@@ -43020,7 +43098,7 @@
         <v>5</v>
       </c>
       <c r="F74" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>-0.66666666666666663</v>
       </c>
       <c r="G74" s="38">
@@ -43048,7 +43126,7 @@
         <v>2</v>
       </c>
       <c r="M74" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>-1</v>
       </c>
       <c r="N74" s="17">
@@ -43080,7 +43158,7 @@
         <v>3</v>
       </c>
       <c r="U74" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>-0.5</v>
       </c>
       <c r="V74" s="41">
@@ -43112,7 +43190,7 @@
         <v>0</v>
       </c>
       <c r="AC74" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD74" s="46">
@@ -43144,7 +43222,7 @@
         <v>0</v>
       </c>
       <c r="AK74" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL74" s="50">
@@ -43176,7 +43254,7 @@
         <v>0</v>
       </c>
       <c r="AS74" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT74" s="58">
@@ -43208,7 +43286,7 @@
         <v>0</v>
       </c>
       <c r="BA74" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BB74" s="64">
@@ -43240,7 +43318,7 @@
         <v>0</v>
       </c>
       <c r="BI74" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BJ74" s="68">
@@ -43264,7 +43342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:66">
+    <row r="75" spans="3:66" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C75" s="146">
         <v>0</v>
       </c>
@@ -43277,7 +43355,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="51">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="G75" s="38">
@@ -43305,7 +43383,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="51">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N75" s="17">
@@ -43337,7 +43415,7 @@
         <v>0</v>
       </c>
       <c r="U75" s="52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V75" s="41">
@@ -43369,7 +43447,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD75" s="46">
@@ -43401,7 +43479,7 @@
         <v>0</v>
       </c>
       <c r="AK75" s="51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AL75" s="50">
@@ -43433,7 +43511,7 @@
         <v>0</v>
       </c>
       <c r="AS75" s="51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AT75" s="58">
@@ -43465,7 +43543,7 @@
         <v>0</v>
       </c>
       <c r="BA75" s="51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="BB75" s="64">
@@ -43497,7 +43575,7 @@
         <v>0</v>
       </c>
       <c r="BI75" s="51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BJ75" s="68">
@@ -43521,11 +43599,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:66"/>
-    <row r="78" spans="3:66"/>
-    <row r="79" spans="3:66"/>
-    <row r="80" spans="3:66"/>
-    <row r="81"/>
+    <row r="77" spans="3:66" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="3:66" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="3:66" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="3:66" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C14:N20">
     <sortCondition descending="1" ref="G14:G20"/>
@@ -43752,20 +43830,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100E080B9D539EE5249B0F7896E1534F47F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1a88378f58b9ad7590fd740332c19a90">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c298b4c-1b69-4120-abb9-a44ffc4bda23" xmlns:ns3="c3e1b4bb-9124-477c-aa49-683b9a26b58f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="910b3ddf48a2c6cdf16d80fb4d738ee7" ns2:_="" ns3:_="">
     <xsd:import namespace="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
@@ -43966,6 +44030,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c3e1b4bb-9124-477c-aa49-683b9a26b58f">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -43976,13 +44054,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749E22C5-4A50-411E-A267-99434988BB08}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c298b4c-1b69-4120-abb9-a44ffc4bda23"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{749E22C5-4A50-411E-A267-99434988BB08}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2FEBBB-B4B0-4147-BA7E-181AD49E4B6A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c3e1b4bb-9124-477c-aa49-683b9a26b58f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{890994BF-65F0-45C5-A04B-1A065C31A5EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>